--- a/data/trans_bre/P18_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>200,9%</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>176,74%</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>428,35%</t>
+          <t>200,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>161,97%</t>
+          <t>146,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>386,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>161,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>135,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 17,39</t>
+          <t>4,2; 16,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 12,51</t>
+          <t>0,03; 11,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,38</t>
+          <t>3,17; 12,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,56</t>
+          <t>-0,45; 9,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 8,04</t>
+          <t>0,69; 15,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,24; 577,01</t>
+          <t>-7,01; 7,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 763,55</t>
+          <t>-10,68; 5,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,92; 1848,54</t>
+          <t>45,72; 589,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 1108,74</t>
+          <t>-11,01; 612,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 9,28</t>
+          <t>52,84; 1965,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-30,0; 1039,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 700,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-64,31; 162,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-66,37; 91,98</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>43,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>106,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>108,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>83,75%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 11,02</t>
+          <t>-7,5; 10,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 5,86</t>
+          <t>-15,29; 4,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 11,23</t>
+          <t>-7,64; 10,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 6,19</t>
+          <t>-9,12; 6,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 0,25</t>
+          <t>2,45; 17,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 128,88</t>
+          <t>0,73; 14,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 106,87</t>
+          <t>-0,67; 13,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 192,07</t>
+          <t>-41,64; 109,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 73,7</t>
+          <t>-76,45; 86,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 0,12</t>
+          <t>-45,14; 193,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 77,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 322,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 422,15</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 283,87</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>43,64%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>113,94%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>114,68%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>116,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117,79%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>92,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>102,43%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,18</t>
+          <t>-0,87; 10,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 5,79</t>
+          <t>-2,8; 5,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 11,23</t>
+          <t>2,53; 11,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 13,14</t>
+          <t>3,75; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -1,26</t>
+          <t>-0,92; 12,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 130,36</t>
+          <t>0,97; 12,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 124,68</t>
+          <t>1,8; 13,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,16; 256,35</t>
+          <t>-7,57; 129,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,56; 254,83</t>
+          <t>-30,19; 120,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -1,49</t>
+          <t>28,92; 283,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35,56; 256,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 119,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 259,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 285,48</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>116,22%</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>101,77%</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>104,79%</t>
+          <t>116,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>103,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>104,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>65,89%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 13,4</t>
+          <t>0,94; 12,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 9,81</t>
+          <t>0,3; 10,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 13,27</t>
+          <t>3,56; 13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,67</t>
+          <t>1,36; 10,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 2,68</t>
+          <t>2,44; 14,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 315,42</t>
+          <t>-2,27; 11,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 289,37</t>
+          <t>-0,04; 12,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 225,95</t>
+          <t>-9,15; 301,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 163,92</t>
+          <t>-11,01; 290,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 3,32</t>
+          <t>33,03; 241,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11,15; 158,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 185,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 111,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 152,38</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,2</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>250,41%</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>188,17%</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>137,58%</t>
+          <t>250,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>141,33%</t>
+          <t>173,07%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>135,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>139,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>96,47%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>331,68%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 16,38</t>
+          <t>6,33; 16,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,84</t>
+          <t>0,88; 10,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 15,05</t>
+          <t>3,94; 15,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,7</t>
+          <t>3,25; 12,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -7,73</t>
+          <t>1,56; 14,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,68; 593,15</t>
+          <t>7,84; 18,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 705,11</t>
+          <t>-1,1; 11,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,86; 334,25</t>
+          <t>91,93; 591,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,21; 337,26</t>
+          <t>10,0; 741,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -8,27</t>
+          <t>39,51; 326,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39,19; 352,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,52; 241,6</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>110,19; 897,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; 186,58</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,65</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>106,59%</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>118,78%</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>106,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>433,9%</t>
+          <t>291,84%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>76,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>486,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>103,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>900,73%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,0</t>
+          <t>1,54; 11,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 9,83</t>
+          <t>1,73; 12,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 8,94</t>
+          <t>-3,03; 8,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 15,58</t>
+          <t>5,88; 19,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -5,91</t>
+          <t>-0,37; 13,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 314,46</t>
+          <t>5,92; 19,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 1131,14</t>
+          <t>-1,73; 9,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 381,62</t>
+          <t>14,82; 334,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,69; 1698,18</t>
+          <t>-3,57; 2024,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -6,03</t>
+          <t>-36,38; 382,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>87,99; 2119,51</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 586,3</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>99,88; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 382,29</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>103,71%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>102,19%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>80,57%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>98,56%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,45</t>
+          <t>4,16; 9,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,8</t>
+          <t>0,7; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,98</t>
+          <t>3,98; 8,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,47</t>
+          <t>3,76; 8,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -4,59</t>
+          <t>4,69; 10,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,95; 137,2</t>
+          <t>4,14; 9,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 130,75</t>
+          <t>1,86; 7,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,73; 168,44</t>
+          <t>41,41; 144,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,13; 147,5</t>
+          <t>3,63; 124,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -5,01</t>
+          <t>46,67; 166,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44,45; 147,55</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42,54; 128,51</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>46,41; 158,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 102,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
